--- a/报销/张帅交通费报销（1）.xlsx
+++ b/报销/张帅交通费报销（1）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\0-报销\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90ACA99-F569-4FF0-B73D-F76D30F67DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220AB4B8-C736-4DEC-9072-C6041C613BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,17 +267,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -576,24 +566,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.06640625" style="1"/>
-    <col min="11" max="11" width="8.46484375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -603,7 +593,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -623,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -643,7 +633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -663,7 +653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -683,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -703,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -723,7 +713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -743,7 +733,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -763,7 +753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -783,7 +773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -803,7 +793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -823,7 +813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -843,7 +833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -863,7 +853,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -883,7 +873,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -903,7 +893,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -923,7 +913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -944,7 +934,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -964,7 +954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -984,7 +974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1004,7 +994,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1024,7 +1014,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1044,7 +1034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1064,7 +1054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1084,7 +1074,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1104,7 +1094,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1124,7 +1114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1144,7 +1134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -1164,7 +1154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -1184,7 +1174,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -1204,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -1224,7 +1214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1239,8 +1229,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/报销/张帅交通费报销（1）.xlsx
+++ b/报销/张帅交通费报销（1）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220AB4B8-C736-4DEC-9072-C6041C613BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B429413-E24D-4C6D-8594-3C1FB622E11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>交通费用报销明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>BDA8283</t>
-  </si>
-  <si>
-    <t>BD72993</t>
   </si>
   <si>
     <t>BD93621</t>
@@ -564,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA43" sqref="AA43"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1165,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>45664.327777777777</v>
+        <v>45675.765277777777</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="6">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1185,42 +1182,22 @@
         <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>45675.765277777777</v>
+        <v>45680.612500000003</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="7">
-        <v>45680.612500000003</v>
-      </c>
-      <c r="E32" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="4">
-        <f>SUM(F3:F32)</f>
-        <v>3000</v>
+      <c r="F32" s="4">
+        <f>SUM(F3:F31)</f>
+        <v>2858</v>
       </c>
     </row>
   </sheetData>

--- a/报销/张帅交通费报销（1）.xlsx
+++ b/报销/张帅交通费报销（1）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B429413-E24D-4C6D-8594-3C1FB622E11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F2D11-D2FE-4234-8E6F-FD1146C8516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>交通费用报销明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>总计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD90133</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,26 +565,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1328125" style="1"/>
+    <col min="11" max="11" width="8.46484375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -590,7 +594,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -610,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -630,7 +634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -650,7 +654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -670,7 +674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -690,7 +694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -710,7 +714,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -730,7 +734,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -750,7 +754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -770,7 +774,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -790,7 +794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -810,7 +814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -830,7 +834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -850,7 +854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -870,7 +874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -890,7 +894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -910,7 +914,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -931,7 +935,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -951,7 +955,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -971,7 +975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -991,7 +995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -1191,13 +1195,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>45695.719444444447</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="E33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="4">
-        <f>SUM(F3:F31)</f>
-        <v>2858</v>
+      <c r="F33" s="4">
+        <f>SUM(F3:F32)</f>
+        <v>2895</v>
       </c>
     </row>
   </sheetData>
